--- a/tmp/batsmendata.xlsx
+++ b/tmp/batsmendata.xlsx
@@ -567,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,99 +628,203 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -729,173 +833,69 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>

--- a/tmp/batsmendata.xlsx
+++ b/tmp/batsmendata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>BATSMEN</t>
   </si>
@@ -236,6 +236,48 @@
   </si>
   <si>
     <t>(nb 8)</t>
+  </si>
+  <si>
+    <t>KS Bharat †</t>
+  </si>
+  <si>
+    <t>lbw b Dhawan</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>42.85</t>
+  </si>
+  <si>
+    <t>DB Prasanth</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>48.69</t>
+  </si>
+  <si>
+    <t>GH Vihari (c)</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>45.63</t>
   </si>
 </sst>
 </file>
@@ -604,80 +646,80 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
